--- a/Parte1/Datos/annual_savings.xlsx
+++ b/Parte1/Datos/annual_savings.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Desktop\Trabajo\proyectoFondecyt\Parte1\Datos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0C9F29-3D7A-435B-9B9D-67AAC365D35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Year</t>
+  </si>
   <si>
     <t>North</t>
   </si>
@@ -30,18 +27,12 @@
   <si>
     <t>South</t>
   </si>
-  <si>
-    <t>Year</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,30 +42,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,50 +81,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,7 +139,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -229,7 +173,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,10 +207,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,258 +382,406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>449.56799999999998</v>
-      </c>
-      <c r="C2" s="3">
-        <v>435.54899999999998</v>
-      </c>
-      <c r="D2" s="3">
-        <v>438.33600000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>679.09173432</v>
+      </c>
+      <c r="C2">
+        <v>745.8028921775</v>
+      </c>
+      <c r="D2">
+        <v>654.392780525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>449.56799999999998</v>
-      </c>
-      <c r="C3" s="3">
-        <v>435.54899999999998</v>
-      </c>
-      <c r="D3" s="3">
-        <v>438.33600000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>771.0029565049999</v>
+      </c>
+      <c r="C3">
+        <v>852.8367052475</v>
+      </c>
+      <c r="D3">
+        <v>755.7196542775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>449.274</v>
-      </c>
-      <c r="C4" s="3">
-        <v>435.62799999999999</v>
-      </c>
-      <c r="D4" s="3">
-        <v>439.149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1077.29482608</v>
+      </c>
+      <c r="C4">
+        <v>1181.119627125</v>
+      </c>
+      <c r="D4">
+        <v>1032.58971115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>449.38799999999998</v>
-      </c>
-      <c r="C5" s="3">
-        <v>435.20499999999998</v>
-      </c>
-      <c r="D5" s="4">
-        <v>440.51</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1037.46010299</v>
+      </c>
+      <c r="C5">
+        <v>1139.47489194</v>
+      </c>
+      <c r="D5">
+        <v>1000.3554035475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>450.25400000000002</v>
-      </c>
-      <c r="C6" s="3">
-        <v>435.41300000000001</v>
-      </c>
-      <c r="D6" s="6">
-        <v>443.96300000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>980.0653262849999</v>
+      </c>
+      <c r="C6">
+        <v>1076.4330720025</v>
+      </c>
+      <c r="D6">
+        <v>945.00637362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>451.61700000000002</v>
-      </c>
-      <c r="C7" s="3">
-        <v>436.89400000000001</v>
-      </c>
-      <c r="D7" s="3">
-        <v>449.00900000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>925.9019645249999</v>
+      </c>
+      <c r="C7">
+        <v>1016.953406975</v>
+      </c>
+      <c r="D7">
+        <v>892.7986128975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>453.72</v>
-      </c>
-      <c r="C8" s="3">
-        <v>439.26600000000002</v>
-      </c>
-      <c r="D8" s="3">
-        <v>455.21300000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>874.7494862999999</v>
+      </c>
+      <c r="C8">
+        <v>960.7694647549999</v>
+      </c>
+      <c r="D8">
+        <v>843.4772359875001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>455.67099999999999</v>
-      </c>
-      <c r="C9" s="3">
-        <v>441.577</v>
-      </c>
-      <c r="D9" s="3">
-        <v>460.80200000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>826.30058506</v>
+      </c>
+      <c r="C9">
+        <v>907.5520575475</v>
+      </c>
+      <c r="D9">
+        <v>796.7533114125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>456.93099999999998</v>
-      </c>
-      <c r="C10" s="3">
-        <v>443.16500000000002</v>
-      </c>
-      <c r="D10" s="3">
-        <v>464.387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>780.5661798199999</v>
+      </c>
+      <c r="C10">
+        <v>857.3215119475001</v>
+      </c>
+      <c r="D10">
+        <v>752.6555996075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>457.96499999999997</v>
-      </c>
-      <c r="C11" s="3">
-        <v>443.67399999999998</v>
-      </c>
-      <c r="D11" s="3">
-        <v>466.13499999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>737.410060555</v>
+      </c>
+      <c r="C11">
+        <v>809.9277825825</v>
+      </c>
+      <c r="D11">
+        <v>711.059123155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>599.96900000000005</v>
-      </c>
-      <c r="C12" s="3">
-        <v>678.34199999999998</v>
-      </c>
-      <c r="D12" s="3">
-        <v>674.12900000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>696.600647355</v>
+      </c>
+      <c r="C12">
+        <v>765.1009588325001</v>
+      </c>
+      <c r="D12">
+        <v>671.681747855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
-        <v>599.92999999999995</v>
-      </c>
-      <c r="C13" s="3">
-        <v>678.46400000000006</v>
-      </c>
-      <c r="D13" s="3">
-        <v>674.26499999999999</v>
-      </c>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>677.2416698249999</v>
+      </c>
+      <c r="C13">
+        <v>743.743980415</v>
+      </c>
+      <c r="D13">
+        <v>652.4778294450001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>599.86300000000006</v>
-      </c>
-      <c r="C14" s="3">
-        <v>678.61400000000003</v>
-      </c>
-      <c r="D14" s="4">
-        <v>674.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>674.2663714199999</v>
+      </c>
+      <c r="C14">
+        <v>740.4810133225001</v>
+      </c>
+      <c r="D14">
+        <v>649.6111316700001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <v>599.77200000000005</v>
-      </c>
-      <c r="C15" s="3">
-        <v>678.75900000000001</v>
-      </c>
-      <c r="D15" s="3">
-        <v>674.56799999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>671.7555077249999</v>
+      </c>
+      <c r="C15">
+        <v>737.72680238</v>
+      </c>
+      <c r="D15">
+        <v>647.2150583625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>599.654</v>
-      </c>
-      <c r="C16" s="3">
-        <v>678.88199999999995</v>
-      </c>
-      <c r="D16" s="3">
-        <v>674.67600000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B16">
+        <v>668.908468385</v>
+      </c>
+      <c r="C16">
+        <v>734.6004592975</v>
+      </c>
+      <c r="D16">
+        <v>644.46447575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>666.33371482</v>
+      </c>
+      <c r="C17">
+        <v>731.7694395225</v>
+      </c>
+      <c r="D17">
+        <v>641.96894072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>663.524503485</v>
+      </c>
+      <c r="C18">
+        <v>728.6968480025</v>
+      </c>
+      <c r="D18">
+        <v>639.3132921175001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>660.946878415</v>
+      </c>
+      <c r="C19">
+        <v>725.8451063825</v>
+      </c>
+      <c r="D19">
+        <v>636.7665346825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>658.230534435</v>
+      </c>
+      <c r="C20">
+        <v>722.86489362</v>
+      </c>
+      <c r="D20">
+        <v>634.1552392975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>655.62462841</v>
+      </c>
+      <c r="C21">
+        <v>720.0088148925</v>
+      </c>
+      <c r="D21">
+        <v>631.6519829375001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>653.047067195</v>
+      </c>
+      <c r="C22">
+        <v>717.173680325</v>
+      </c>
+      <c r="D22">
+        <v>629.1691470475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>650.270637385</v>
+      </c>
+      <c r="C23">
+        <v>714.124629495</v>
+      </c>
+      <c r="D23">
+        <v>626.4943802150001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>647.7887106549999</v>
+      </c>
+      <c r="C24">
+        <v>711.3983349800001</v>
+      </c>
+      <c r="D24">
+        <v>624.10071836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>645.013834805</v>
+      </c>
+      <c r="C25">
+        <v>708.3704720125</v>
+      </c>
+      <c r="D25">
+        <v>621.468658485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>642.5357450199999</v>
+      </c>
+      <c r="C26">
+        <v>705.6347181225001</v>
+      </c>
+      <c r="D26">
+        <v>619.04236787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>639.985424255</v>
+      </c>
+      <c r="C27">
+        <v>702.82827388</v>
+      </c>
+      <c r="D27">
+        <v>616.5782001125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>637.3795182299999</v>
+      </c>
+      <c r="C28">
+        <v>699.9721951525</v>
+      </c>
+      <c r="D28">
+        <v>614.0749437525</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Parte1/Datos/annual_savings.xlsx
+++ b/Parte1/Datos/annual_savings.xlsx
@@ -408,13 +408,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>679.09173432</v>
+        <v>1161.56531337</v>
       </c>
       <c r="C2">
-        <v>745.8028921775</v>
+        <v>1290.366832755</v>
       </c>
       <c r="D2">
-        <v>654.392780525</v>
+        <v>1128.38323257</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>771.0029565049999</v>
+        <v>1318.93042116</v>
       </c>
       <c r="C3">
-        <v>852.8367052475</v>
+        <v>1476.90389847</v>
       </c>
       <c r="D3">
-        <v>755.7196542775</v>
+        <v>1304.22379527</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1077.29482608</v>
+        <v>1838.26286061</v>
       </c>
       <c r="C4">
-        <v>1181.119627125</v>
+        <v>2037.872878195</v>
       </c>
       <c r="D4">
-        <v>1032.58971115</v>
+        <v>1774.65915594</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1037.46010299</v>
+        <v>1740.92691168</v>
       </c>
       <c r="C5">
-        <v>1139.47489194</v>
+        <v>1934.319344265</v>
       </c>
       <c r="D5">
-        <v>1000.3554035475</v>
+        <v>1693.155997665</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>980.0653262849999</v>
+        <v>1614.08635509</v>
       </c>
       <c r="C6">
-        <v>1076.4330720025</v>
+        <v>1793.372514395</v>
       </c>
       <c r="D6">
-        <v>945.00637362</v>
+        <v>1569.74176161</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>925.9019645249999</v>
+        <v>1496.48059374</v>
       </c>
       <c r="C7">
-        <v>1016.953406975</v>
+        <v>1662.69101383</v>
       </c>
       <c r="D7">
-        <v>892.7986128975</v>
+        <v>1455.3419562</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>874.7494862999999</v>
+        <v>1387.73169942</v>
       </c>
       <c r="C8">
-        <v>960.7694647549999</v>
+        <v>1541.87615736</v>
       </c>
       <c r="D8">
-        <v>843.4772359875001</v>
+        <v>1349.60810787</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>826.30058506</v>
+        <v>1286.56100265</v>
       </c>
       <c r="C9">
-        <v>907.5520575475</v>
+        <v>1429.48568917</v>
       </c>
       <c r="D9">
-        <v>796.7533114125</v>
+        <v>1251.235521855</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>780.5661798199999</v>
+        <v>1192.73770539</v>
       </c>
       <c r="C10">
-        <v>857.3215119475001</v>
+        <v>1325.236894905</v>
       </c>
       <c r="D10">
-        <v>752.6555996075</v>
+        <v>1159.980749235</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>737.410060555</v>
+        <v>1105.9239444</v>
       </c>
       <c r="C11">
-        <v>809.9277825825</v>
+        <v>1228.773574875</v>
       </c>
       <c r="D11">
-        <v>711.059123155</v>
+        <v>1075.549397175</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>696.600647355</v>
+        <v>1025.20965129</v>
       </c>
       <c r="C12">
-        <v>765.1009588325001</v>
+        <v>1139.07572471</v>
       </c>
       <c r="D12">
-        <v>671.681747855</v>
+        <v>997.020076635</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>677.2416698249999</v>
+        <v>985.78139979</v>
       </c>
       <c r="C13">
-        <v>743.743980415</v>
+        <v>1095.045481145</v>
       </c>
       <c r="D13">
-        <v>652.4778294450001</v>
+        <v>957.4192232550001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>674.2663714199999</v>
+        <v>977.8035728999999</v>
       </c>
       <c r="C14">
-        <v>740.4810133225001</v>
+        <v>1086.19635971</v>
       </c>
       <c r="D14">
-        <v>649.6111316700001</v>
+        <v>949.7120138550001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>671.7555077249999</v>
+        <v>970.11390432</v>
       </c>
       <c r="C15">
-        <v>737.72680238</v>
+        <v>1077.63008969</v>
       </c>
       <c r="D15">
-        <v>647.2150583625</v>
+        <v>942.204296385</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>668.908468385</v>
+        <v>962.4954292799999</v>
       </c>
       <c r="C16">
-        <v>734.6004592975</v>
+        <v>1069.2015873</v>
       </c>
       <c r="D16">
-        <v>644.46447575</v>
+        <v>934.86753063</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>666.33371482</v>
+        <v>954.5737789499999</v>
       </c>
       <c r="C17">
-        <v>731.7694395225</v>
+        <v>1060.379130195</v>
       </c>
       <c r="D17">
-        <v>641.96894072</v>
+        <v>927.112512645</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>663.524503485</v>
+        <v>947.0004030299999</v>
       </c>
       <c r="C18">
-        <v>728.6968480025</v>
+        <v>1052.01493936</v>
       </c>
       <c r="D18">
-        <v>639.3132921175001</v>
+        <v>919.89609426</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>660.946878415</v>
+        <v>939.46930077</v>
       </c>
       <c r="C19">
-        <v>725.8451063825</v>
+        <v>1043.573234935</v>
       </c>
       <c r="D19">
-        <v>636.7665346825</v>
+        <v>912.3845083650001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>658.230534435</v>
+        <v>932.0807126399999</v>
       </c>
       <c r="C20">
-        <v>722.86489362</v>
+        <v>1035.41694872</v>
       </c>
       <c r="D20">
-        <v>634.1552392975</v>
+        <v>905.328139815</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>655.62462841</v>
+        <v>924.3897874199999</v>
       </c>
       <c r="C21">
-        <v>720.0088148925</v>
+        <v>1026.857358065</v>
       </c>
       <c r="D21">
-        <v>631.6519829375001</v>
+        <v>897.8312118600001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>653.047067195</v>
+        <v>917.0888007599999</v>
       </c>
       <c r="C22">
-        <v>717.173680325</v>
+        <v>1018.75616689</v>
       </c>
       <c r="D22">
-        <v>629.1691470475</v>
+        <v>890.76821724</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>650.270637385</v>
+        <v>909.79125369</v>
       </c>
       <c r="C23">
-        <v>714.124629495</v>
+        <v>1010.62405906</v>
       </c>
       <c r="D23">
-        <v>626.4943802150001</v>
+        <v>883.59581475</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>647.7887106549999</v>
+        <v>902.50135932</v>
       </c>
       <c r="C24">
-        <v>711.3983349800001</v>
+        <v>1002.54305998</v>
       </c>
       <c r="D24">
-        <v>624.10071836</v>
+        <v>876.560725755</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>645.013834805</v>
+        <v>895.20702579</v>
       </c>
       <c r="C25">
-        <v>708.3704720125</v>
+        <v>994.468441505</v>
       </c>
       <c r="D25">
-        <v>621.468658485</v>
+        <v>869.5521058950001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>642.5357450199999</v>
+        <v>888.1406522999999</v>
       </c>
       <c r="C26">
-        <v>705.6347181225001</v>
+        <v>986.5680782650001</v>
       </c>
       <c r="D26">
-        <v>619.04236787</v>
+        <v>862.57529028</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>639.985424255</v>
+        <v>881.0896142399999</v>
       </c>
       <c r="C27">
-        <v>702.82827388</v>
+        <v>978.7516457950001</v>
       </c>
       <c r="D27">
-        <v>616.5782001125</v>
+        <v>855.7481765250001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>637.3795182299999</v>
+        <v>873.8985614699999</v>
       </c>
       <c r="C28">
-        <v>699.9721951525</v>
+        <v>970.801453545</v>
       </c>
       <c r="D28">
-        <v>614.0749437525</v>
+        <v>848.85102621</v>
       </c>
     </row>
   </sheetData>

--- a/Parte1/Datos/annual_savings.xlsx
+++ b/Parte1/Datos/annual_savings.xlsx
@@ -408,13 +408,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1161.56531337</v>
+        <v>679.09173432</v>
       </c>
       <c r="C2">
-        <v>1290.366832755</v>
+        <v>745.8028921775</v>
       </c>
       <c r="D2">
-        <v>1128.38323257</v>
+        <v>654.392780525</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1318.93042116</v>
+        <v>771.1618391999999</v>
       </c>
       <c r="C3">
-        <v>1476.90389847</v>
+        <v>853.0048864075</v>
       </c>
       <c r="D3">
-        <v>1304.22379527</v>
+        <v>755.8448414025</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1838.26286061</v>
+        <v>1074.72020806</v>
       </c>
       <c r="C4">
-        <v>2037.872878195</v>
+        <v>1178.143270645</v>
       </c>
       <c r="D4">
-        <v>1774.65915594</v>
+        <v>1029.82906619</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1740.92691168</v>
+        <v>1017.79707103</v>
       </c>
       <c r="C5">
-        <v>1934.319344265</v>
+        <v>1117.9402832425</v>
       </c>
       <c r="D5">
-        <v>1693.155997665</v>
+        <v>981.72101103</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1614.08635509</v>
+        <v>943.6427939199999</v>
       </c>
       <c r="C6">
-        <v>1793.372514395</v>
+        <v>1036.4817858025</v>
       </c>
       <c r="D6">
-        <v>1569.74176161</v>
+        <v>910.1669240450001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1496.48059374</v>
+        <v>874.8860441099999</v>
       </c>
       <c r="C7">
-        <v>1662.69101383</v>
+        <v>960.95389612</v>
       </c>
       <c r="D7">
-        <v>1455.3419562</v>
+        <v>843.8363463375</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1387.73169942</v>
+        <v>811.3086719649999</v>
       </c>
       <c r="C8">
-        <v>1541.87615736</v>
+        <v>891.12918645</v>
       </c>
       <c r="D8">
-        <v>1349.60810787</v>
+        <v>782.528607725</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1286.56100265</v>
+        <v>752.161745335</v>
       </c>
       <c r="C9">
-        <v>1429.48568917</v>
+        <v>826.1720467125</v>
       </c>
       <c r="D9">
-        <v>1251.235521855</v>
+        <v>725.490153935</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1192.73770539</v>
+        <v>697.30971227</v>
       </c>
       <c r="C10">
-        <v>1325.236894905</v>
+        <v>765.9211214875</v>
       </c>
       <c r="D10">
-        <v>1159.980749235</v>
+        <v>672.578551995</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1105.9239444</v>
+        <v>646.5557572949999</v>
       </c>
       <c r="C11">
-        <v>1228.773574875</v>
+        <v>710.1700268475</v>
       </c>
       <c r="D11">
-        <v>1075.549397175</v>
+        <v>623.62410615</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1025.20965129</v>
+        <v>599.36744228</v>
       </c>
       <c r="C12">
-        <v>1139.07572471</v>
+        <v>658.33035937</v>
       </c>
       <c r="D12">
-        <v>997.020076635</v>
+        <v>578.092481095</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>985.78139979</v>
+        <v>576.32325825</v>
       </c>
       <c r="C13">
-        <v>1095.045481145</v>
+        <v>632.91750218</v>
       </c>
       <c r="D13">
-        <v>957.4192232550001</v>
+        <v>555.2643213825</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>977.8035728999999</v>
+        <v>571.65920978</v>
       </c>
       <c r="C14">
-        <v>1086.19635971</v>
+        <v>627.8020206150001</v>
       </c>
       <c r="D14">
-        <v>949.7120138550001</v>
+        <v>550.7918306025</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>970.11390432</v>
+        <v>567.163312775</v>
       </c>
       <c r="C15">
-        <v>1077.63008969</v>
+        <v>622.8509936075</v>
       </c>
       <c r="D15">
-        <v>942.204296385</v>
+        <v>546.4384748225</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>962.4954292799999</v>
+        <v>562.708748195</v>
       </c>
       <c r="C16">
-        <v>1069.2015873</v>
+        <v>617.97745558</v>
       </c>
       <c r="D16">
-        <v>934.86753063</v>
+        <v>542.18103065</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>954.5737789499999</v>
+        <v>558.07814807</v>
       </c>
       <c r="C17">
-        <v>1060.379130195</v>
+        <v>612.8808824400001</v>
       </c>
       <c r="D17">
-        <v>927.112512645</v>
+        <v>537.6872821975001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>947.0004030299999</v>
+        <v>553.649676485</v>
       </c>
       <c r="C18">
-        <v>1052.01493936</v>
+        <v>608.0416040875</v>
       </c>
       <c r="D18">
-        <v>919.89609426</v>
+        <v>533.493187415</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>939.46930077</v>
+        <v>549.247574945</v>
       </c>
       <c r="C19">
-        <v>1043.573234935</v>
+        <v>603.16888434</v>
       </c>
       <c r="D19">
-        <v>912.3845083650001</v>
+        <v>529.1477293875</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>932.0807126399999</v>
+        <v>544.9273888099999</v>
       </c>
       <c r="C20">
-        <v>1035.41694872</v>
+        <v>598.45091038</v>
       </c>
       <c r="D20">
-        <v>905.328139815</v>
+        <v>525.0496519725</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>924.3897874199999</v>
+        <v>540.430905005</v>
       </c>
       <c r="C21">
-        <v>1026.857358065</v>
+        <v>593.5038674425</v>
       </c>
       <c r="D21">
-        <v>897.8312118600001</v>
+        <v>520.70306827</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>917.0888007599999</v>
+        <v>536.162817615</v>
       </c>
       <c r="C22">
-        <v>1018.75616689</v>
+        <v>588.820730515</v>
       </c>
       <c r="D22">
-        <v>890.76821724</v>
+        <v>516.6045639525</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>909.79125369</v>
+        <v>531.89696984</v>
       </c>
       <c r="C23">
-        <v>1010.62405906</v>
+        <v>584.1237194500001</v>
       </c>
       <c r="D23">
-        <v>883.59581475</v>
+        <v>512.450218515</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>902.50135932</v>
+        <v>527.634954975</v>
       </c>
       <c r="C24">
-        <v>1002.54305998</v>
+        <v>579.451754255</v>
       </c>
       <c r="D24">
-        <v>876.560725755</v>
+        <v>508.3683490125</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>895.20702579</v>
+        <v>523.37028665</v>
       </c>
       <c r="C25">
-        <v>994.468441505</v>
+        <v>574.782670415</v>
       </c>
       <c r="D25">
-        <v>869.5521058950001</v>
+        <v>504.29877732</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>888.1406522999999</v>
+        <v>519.238766165</v>
       </c>
       <c r="C26">
-        <v>986.5680782650001</v>
+        <v>570.2193967675</v>
       </c>
       <c r="D26">
-        <v>862.57529028</v>
+        <v>500.2580698225</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>881.0896142399999</v>
+        <v>515.115981405</v>
       </c>
       <c r="C27">
-        <v>978.7516457950001</v>
+        <v>565.70040299</v>
       </c>
       <c r="D27">
-        <v>855.7481765250001</v>
+        <v>496.2982321825</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>873.8985614699999</v>
+        <v>510.91247844</v>
       </c>
       <c r="C28">
-        <v>970.801453545</v>
+        <v>561.1038809075</v>
       </c>
       <c r="D28">
-        <v>848.85102621</v>
+        <v>492.2931950075</v>
       </c>
     </row>
   </sheetData>
